--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level/act17d0_01.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level/act17d0_01.xlsx
@@ -50,7 +50,7 @@
     <t>[PopupDialog(dialogHead="$avatar_franka")] ここで一体何が起きてるっての……</t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_shwazr6")] …That's no ordinary Infected creature!
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_shwazr6")] ...That's no ordinary Infected creature!
 </t>
   </si>
   <si>
@@ -58,7 +58,7 @@
 </t>
   </si>
   <si>
-    <t>[PopupDialog(dialogHead="$avatar_franka")] What the hell is going on here…?</t>
+    <t>[PopupDialog(dialogHead="$avatar_franka")] What the hell is going on here...?</t>
   </si>
   <si>
     <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_shwazr6")] ……평범한 감염 생물이 아니야!
